--- a/core/engine/chat_engine/input.xlsx
+++ b/core/engine/chat_engine/input.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="191">
   <si>
     <t>question</t>
   </si>
@@ -266,12 +266,402 @@
 10. Lợi dụng chức vụ, quyền hạn để gây sách nhiễu, phiền hà, thu lợi bất chính trong hoạt động điện lực và sử dụng điện. 
 11. Các hành vi khác vi phạm quy định của pháp luật về điện lực.</t>
   </si>
+  <si>
+    <t>Một tổ chức nước ngoài đang đầu tư vào một dự án dầu khí ở Việt Nam bị tranh chấp về quyền sở hữu vốn đầu tư của họ, họ nên làm gì để bảo vệ quyền lợi của mình theo pháp luật Việt Nam?</t>
+  </si>
+  <si>
+    <t>Nhà nước Việt Nam khuyến khích các tổ chức, cá nhân Việt Nam và nước ngoài đầu tư vốn, công nghệ để tiến hành các hoạt động dầu khí trên cơ sở tôn trọng độc lập, chủ quyền, toàn vẹn lãnh thổ, an ninh quốc gia của Việt Nam và tuân thủ pháp luật Việt Nam. Nhà nước Việt Nam bảo hộ quyền sở hữu đối với vốn đầu tư, tài sản và các quyền lợi hợp pháp khác của các tổ chức, cá nhân Việt Nam và nước ngoài tiến hành các hoạt động dầu khí ở Việt Nam.</t>
+  </si>
+  <si>
+    <t>Một công ty nước ngoài muốn khai thác dầu khí trong lòng đất ở Việt Nam, họ cần phải tuân thủ những quy định và yêu cầu nào của pháp luật Việt Nam?</t>
+  </si>
+  <si>
+    <t>Trên các công trình, phương tiện, thiết bị phục vụ cho các hoạt động dầu khí trong vùng đặc quyền kinh tế và thềm lục địa của nước Cộng hoà xã hội chủ nghĩa Việt Nam; 2. Trên các công trình, phương tiện, thiết bị của tổ chức, cá nhân Việt Nam phục vụ cho các hoạt động dầu khí trên cơ sở hợp tác với nước ngoài tại các vùng không thuộc quyền tài phán của nước Cộng hoà xã hội chủ nghĩa Việt Nam.</t>
+  </si>
+  <si>
+    <t>Một cá nhân tham gia vào hoạt động tìm kiếm thăm dò khoáng sản trong khu vực hợp đồng dầu khí, nhưng họ gặp phải tranh chấp với một công ty khác về quyền sở hữu, họ nên thực hiện những biện pháp gì để giải quyết tình huống này?</t>
+  </si>
+  <si>
+    <t>Chính phủ Việt Nam cho phép tổ chức, cá nhân tiến hành các hoạt động nghiên cứu khoa học, tìm kiếm thăm dò và khai thác khoáng sản, tài nguyên thiên nhiên khác ngoài dầu khí trong diện tích hợp đồng dầu khí theo quy định của pháp luật Việt Nam. Các hoạt động này không được gây cản trở và làm thiệt hại cho các hoạt động dầu khí.</t>
+  </si>
+  <si>
+    <t>Một tổ chức nước ngoài muốn tham gia ký kết hợp đồng dầu khí với Chính phủ Việt Nam, họ cần phải đáp ứng những yêu cầu gì về tư cách pháp lý?</t>
+  </si>
+  <si>
+    <t>Hợp đồng dầu khí phải tuân thủ Hợp đồng mẫu do Chính phủ Việt Nam ban hành, trong đó có những nội dung chính sau đây: 1. Tư cách pháp lý của tổ chức, cá nhân tham gia ký kết hợp đồng; 2. Đối tượng của hợp đồng; 3. Giới hạn diện tích và tiến độ hoàn trả diện tích hợp đồng; 4. Thời hạn hợp đồng; 5. Điều kiện chấm dứt hợp đồng trước thời hạn hoặc kéo dài thời hạn hợp đồng; 6. Cam kết về tiến độ công việc và đầu tư tài chính; 7. Quyền và nghĩa vụ của các bên ký kết hợp đồng; 8. Việc thu hồi vốn đầu tư, xác định lợi nhuận và phân chia lợi nhuận; quyền của nước chủ nhà đối với tài sản cố định sau khi hoàn vốn và khi chấm dứt hợp đồng; 9. Điều kiện chuyển nhượng quyền và nghĩa vụ của các bên ký kết hợp đồng; quyền của Tổng công ty dầu khí Việt Nam được tham gia vốn đầu tư; 10. Cam kết đào tạo và ưu tiên sử dụng lao động, dịch vụ Việt Nam; 11. Trách nhiệm bảo vệ môi trường và bảo đảm an toàn trong khi tiến hành hoạt động dầu khí; 12. Thể thức giải quyết tranh chấp phát sinh từ hợp đồng</t>
+  </si>
+  <si>
+    <t>Các biện pháp nào có thể được Nhà thầu áp dụng để đề xuất kéo dài thời hạn của hợp đồng dầu khí?</t>
+  </si>
+  <si>
+    <t>Thời hạn hợp đồng dầu khí không quá hai mươi lăm năm (25 năm), trong đó giai đoạn tìm kiếm thăm dò không quá năm năm (5 năm). Thời hạn hợp đồng dầu khí đối với khu vực nước sâu, xa bờ và thời hạn hợp đồng tìm kiếm thăm dò, khai thác khí thiên nhiên không quá ba mươi năm (30 năm), trong đó giai đoạn tìm kiếm thăm dò không quá bảy năm (7 năm). Thời hạn hợp đồng dầu khí có thể được kéo dài thêm, nhưng không quá năm năm (5 năm) và thời hạn của giai đoạn tìm kiếm thăm dò có thể được kéo dài thêm, nhưng không quá một năm (1 năm), theo đề nghị của Nhà thầu và phải được Chính phủ Việt Nam quyết định. Hợp đồng dầu khí có thể kết thúc trước thời hạn với điều kiện Nhà thầu phải hoàn thành các nghĩa vụ đã cam kết và được các bên ký kết hợp đồng thoả thuận.</t>
+  </si>
+  <si>
+    <t>Nhà thầu có quyền gì theo quy định của luật dầu khí?</t>
+  </si>
+  <si>
+    <t>Nhà thầu có các quyền sau đây: 1. Được hưởng những ưu đãi và những bảo đảm theo quy định của pháp luật Việt Nam; 2. Được sử dụng các mẫu vật, số liệu, thông tin thu được để tiến hành các hoạt động dầu khí; 3. Được tuyển dụng người lao động để thực hiện các công việc của hợp đồng dầu khí trên cơ sở ưu tiên tuyển dụng người lao động Việt Nam; 4. Được thuê Nhà thầu phụ theo quy định của Luật này và phù hợp với thông lệ trong công nghiệp dầu khí quốc tế; 5. Được miễn thuế nhập khẩu các thiết bị, vật tư cần thiết cho hoạt động dầu khí và miễn thuế tái xuất khi các thiết bị nhập khẩu không được lắp đặt cố định hoặc vật tư không sử dụng hết theo quy định của pháp luật Việt Nam; 6. Được quyền sở hữu phần dầu khí của mình sau khi hoàn thành các nghĩa vụ tài chính với Nhà nước Việt Nam; 7. Được xuất khẩu phần dầu khí của mình theo thoả thuận trong hợp đồng dầu khí; 8. Được thu hồi vốn đầu tư theo thoả thuận trong hợp đồng dầu khí; 9. Nhà thầu là tổ chức, cá nhân nước ngoài được chuyển vốn đầu tư và lợi nhuận thu được trong quá trình hoạt động dầu khí ra nước ngoài theo các quy định của Luật đầu tư nước ngoài tại Việt Nam.</t>
+  </si>
+  <si>
+    <t>Các nghĩa vụ của nhà thầu theo quy định của luật dầu khí?</t>
+  </si>
+  <si>
+    <t>Nhà thầu có các nghĩa vụ sau đây: 1. Tuân thủ pháp luật Việt Nam; 2. Thực hiện các cam kết ghi trong hợp đồng dầu khí; 3. Nộp các loại thuế, lệ phí theo quy định của pháp luật Việt Nam; 4. Chuyển giao công nghệ; đào tạo, sử dụng cán bộ, công nhân Việt Nam và bảo đảm quyền lợi của người lao động; 5. Thực hiện các biện pháp bảo vệ môi trường; 6. Báo cáo hoạt động dầu khí với cơ quan quản lý Nhà nước có thẩm quyền và Tổng công ty dầu khí Việt Nam; 7. Cung cấp các tài liệu cho đoàn thanh tra; 8. Thu dọn các công trình, thiết bị, phương tiện sau khi kết thúc hoạt động dầu khí theo yêu cầu của cơ quan quản lý Nhà nước có thẩm quyền; 9. Bán tại thị trường Việt Nam một phần dầu khí thuộc quyền sở hữu của mình khi Chính phủ Việt Nam yêu cầu.</t>
+  </si>
+  <si>
+    <t>Một nhà thầu phụ là tổ chức Việt Nam tiến hành hoạt động tại Việt Nam, nhưng không nộp thuế lợi tức theo quy định của Luật thuế lợi tức, họ sẽ phải chịu những hậu quả gì theo pháp luật?</t>
+  </si>
+  <si>
+    <t>Nhà thầu phụ là tổ chức, cá nhân Việt Nam tiến hành các hoạt động tại Việt Nam phải nộp thuế lợi tức theo quy định của Luật thuế lợi tức. Nhà thầu phụ là tổ chức, cá nhân nước ngoài có đăng ký hoạt động tại Việt Nam phải nộp thuế lợi tức theo quy định của Luật đầu tư nước ngoài tại Việt Nam. Nhà thầu phụ là tổ chức, cá nhân nước ngoài không đăng ký hoạt động tại Việt Nam phải nộp thuế theo quy định của pháp luật Việt Nam.</t>
+  </si>
+  <si>
+    <t>Thanh tra các hoạt động dầu khí theo quy định là ai?</t>
+  </si>
+  <si>
+    <t>Thanh tra các hoạt động dầu khí là thanh tra chuyên ngành nhằm bảo đảm việc chấp hành các quy định của Luật này, các quy chế, quy trình, quy phạm kỹ thuật, bảo vệ tài nguyên dầu khí, bảo vệ môi trường, an toàn kỹ thuật và việc thực hiện các nghĩa vụ đối với Nhà nước Việt Nam của tổ chức, cá nhân tiến hành các hoạt động dầu khí.</t>
+  </si>
+  <si>
+    <t>Trong trường hợp phát hiện vi phạm trong quá trình kiểm tra kỹ thuật tại hiện trường, đoàn thanh tra có thẩm quyền áp dụng biện pháp gì để giải quyết tình huống này?</t>
+  </si>
+  <si>
+    <t>Khi tiến hành thanh tra các hoạt động dầu khí, đoàn thanh tra có quyền: 1. Yêu cầu các tổ chức, cá nhân có liên quan cung cấp tài liệu và trả lời về những vấn đề cần thiết cho việc thanh tra; 2. Tiến hành các biện pháp kiểm tra kỹ thuật tại hiện trường; 3. Tạm đình chỉ hoặc kiến nghị với cơ quan Nhà nước có thẩm quyền đình chỉ các hoạt động dầu khí có nguy cơ gây tai nạn hoặc tổn thất nghiêm trọng đối với người hoặc tài sản, tài nguyên dầu khí và ô nhiễm môi trường; 4. Xử lý theo thẩm quyền hoặc kiến nghị với cơ quan Nhà nước có thẩm quyền xử lý các vi phạm.</t>
+  </si>
+  <si>
+    <t>Giải thích cho tôi thuật ngữ "Hành vi thương mại" là gì?</t>
+  </si>
+  <si>
+    <t>Hành vi thương mại là hành vi của thương nhân trong hoạt động thương mại làm phát sinh quyền và nghĩa vụ giữa các thương nhân với nhau hoặc giữa thương nhân với các bên có liên quan</t>
+  </si>
+  <si>
+    <t>Thuật ngữ "Thương nhân" áp dụng cho những đối tượng nào?</t>
+  </si>
+  <si>
+    <t>Thương nhân gồm cá nhân, pháp nhân, tổ hợp tác, hộ gia đình có đăng ký kinh doanh hoạt động thương mại một cách độc lập, thường xuyên;</t>
+  </si>
+  <si>
+    <t>Sản nghiệp thương mại là gì?</t>
+  </si>
+  <si>
+    <t>Sản nghiệp thương mại là toàn bộ tài sản thuộc quyền sở hữu hoặc quyền sử dụng hợp pháp của thương nhân, phục vụ cho hoạt động thương mại như trụ sở, cửa hàng, kho tàng, trang thiết bị, hàng hoá, tên thương mại, biển hiệu, nhãn hiệu hàng hoá, mạng lưới tiêu thụ hàng hoá và cung ứng dịch vụ.</t>
+  </si>
+  <si>
+    <t>Các hành vi bị ngăn cấm trong cạnh tranh thương mại</t>
+  </si>
+  <si>
+    <t>Cạnh tranh trong thương mại 1- Thương nhân được cạnh tranh hợp pháp trong hoạt động thương mại. 2- Nghiêm cấm các hành vi cạnh tranh gây tổn hại đến lợi ích quốc gia và các hành vi sau đây: a) Đầu cơ để lũng đoạn thị trường; b) Bán phá giá để cạnh tranh; c) Dèm pha thương nhân khác; d) Ngăn cản, lôi kéo, mua chuộc, đe dọa nhân viên hoặc khách hàng của thương nhân khác; đ) Xâm phạm quyền về nhãn hiệu hàng hoá, các quyền khác về sở hữu công nghiệp của thương nhân khác; e) Các hành vi cạnh tranh bất hợp pháp khác.</t>
+  </si>
+  <si>
+    <t>Nội dung của chính sách thương mại đối với nông thôn</t>
+  </si>
+  <si>
+    <t>Các chính sách lưu thông hàng hóa và dịch vụ thương mại theo quy định</t>
+  </si>
+  <si>
+    <t>Nhà nước khuyến khích, tạo điều kiện mở rộng lưu thông hàng hoá, phát triển dịch vụ thương mại mà pháp luật không hạn chế hoặc không cấm. Trong trường hợp cần thiết Nhà nước có thể sử dụng các biện pháp kinh tế, hành chính để tác động vào thị trường nhằm bảo đảm cân đối cung cầu hoặc thực hiện các chính sách kinh tế - xã hội. Cấm lưu thông hàng hoá, cung ứng dịch vụ gây phương hại đến quốc phòng, an ninh, trật tự an toàn xã hội, truyền thống lịch sử, văn hoá, đạo đức, thuần phong mỹ tục Việt Nam, môi trường sinh thái, sản xuất và sức khoẻ của nhân dân. Cấm mọi hành vi cản trở lưu thông hàng hoá, cung ứng dịch vụ hợp pháp trên thị trường. Chính phủ công bố danh mục hàng hoá cấm lưu thông, dịch vụ thương mại cấm thực hiện, danh mục hàng hoá, dịch vụ hạn chế kinh doanh, kinh doanh có điều kiện.</t>
+  </si>
+  <si>
+    <t>Điều kiện để trở thành thương nhân theo quy định của luật thương mại là gì?</t>
+  </si>
+  <si>
+    <t>Cá nhân từ đủ 18 tuổi trở lên có năng lực hành vi dân sự đầy đủ, pháp nhân, tổ hợp tác, hộ gia đình có đủ điều kiện để kinh doanh thương mại theo quy định của pháp luật nếu có yêu cầu hoạt động thương mại thì được cơ quan Nhà nước có thẩm quyền cấp giấy chứng nhận đăng ký kinh doanh và trở thành thương nhân.</t>
+  </si>
+  <si>
+    <t>Những trường hợp không được công nhận là thương nhân theo quy định của luật thương mại</t>
+  </si>
+  <si>
+    <t>Những người sau đây không được công nhận là thương nhân: 1- Người không có năng lực hành vi dân sự đầy đủ, người mất năng lực hành vi dân sự, người bị hạn chế năng lực hành vi dân sự; 2- Người đang bị truy cứu trách nhiệm hình sự, người đang phải chấp hành hình phạt tù; 3- Người đang trong thời gian bị Toà án tước quyền hành nghề vì phạm các tội buôn lậu, đầu cơ, buôn bán hàng cấm, làm hàng giả, buôn bán hàng giả, kinh doanh trái phép, trốn thuế, lừa dối khách hàng và các tội khác theo quy định của pháp luật.</t>
+  </si>
+  <si>
+    <t>Nội dung đăng ký kinh doanh theo quy định của luật thương mại là gì?</t>
+  </si>
+  <si>
+    <t>Nội dung đăng ký kinh doanh gồm: 1- Tên thương nhân, tên người đại diện có thẩm quyền; 2- Tên thương mại, biển hiệu; 3- Địa chỉ giao dịch chính thức; 4- Ngành nghề kinh doanh; 5- Vốn điều lệ hoặc vốn đầu tư ban đầu; 6- Thời hạn hoạt động; 7- Chi nhánh, cửa hàng, Văn phòng đại diện nếu có. Trong quá trình hoạt động, nếu có thay đổi về nội dung đã đăng ký, thương nhân phải đăng ký những thay đổi này.</t>
+  </si>
+  <si>
+    <t>Quy định về cấp chứng nhận đăng ký kinh doanh</t>
+  </si>
+  <si>
+    <t>1- Cơ quan đăng ký kinh doanh có trách nhiệm giải quyết việc đăng ký kinh doanh trong thời hạn mười lăm ngày, kể từ ngày nhận được hồ sơ đầy đủ và hợp lệ. 2- Trong trường hợp không cấp giấy chứng nhận đăng ký kinh doanh, cơ quan đăng ký kinh doanh phải trả lời bằng văn bản nêu rõ lý do cho đương sự trong thời hạn quy định tại khoản 1 Điều này. 3- Trong trường hợp không được cấp giấy chứng nhận đăng ký kinh doanh, đương sự có quyền khiếu nại đến cơ quan Nhà nước có thẩm quyền hoặc khởi kiện tại Toà án theo quy định của pháp luật.</t>
+  </si>
+  <si>
+    <t>Quy định tạm dừng hoạt động thương mại là gì?</t>
+  </si>
+  <si>
+    <t>Trong trường hợp tạm ngừng hoạt động thương mại, thương nhân phải niêm yết thời hạn tạm ngừng tại địa chỉ giao dịch chính thức của thương nhân; nếu tạm ngừng hoạt động thương mại trên ba mươi ngày thì ngoài việc niêm yết, thương nhân phải thông báo với cơ quan Nhà nước có thẩm quyền cấp giấy chứng nhận đăng ký kinh doanh và cơ quan thuế.</t>
+  </si>
+  <si>
+    <t>Chấm dứt hoạt động thương mại khi nào theo quy định của luật thương mại?</t>
+  </si>
+  <si>
+    <t>Hoạt động thương mại của thương nhân chấm dứt trong những trường hợp sau đây: a) Thương nhân tự chấm dứt hoạt động thương mại; b) Hết thời hạn hoạt động theo giấy chứng nhận đăng ký kinh doanh; c) Thương nhân bị tuyên bố phá sản hoặc giải thể; d) Theo quyết định của cơ quan Nhà nước có thẩm quyền; đ) Thương nhân là cá nhân chết mà không có người thừa kế hoặc người thừa kế không tiếp tục hoạt động thương mại.</t>
+  </si>
+  <si>
+    <t>Hạn chót để hoàn tất thủ tục xóa đăng ký kinh doanh theo quy định là bao lâu?</t>
+  </si>
+  <si>
+    <t>Thương nhân phải làm thủ tục xoá đăng ký kinh doanh tại cơ quan đăng ký kinh doanh chậm nhất là mười lăm ngày, kể từ ngày chấm dứt hoạt động.</t>
+  </si>
+  <si>
+    <t>Chi nhánh thương nhân nước ngoài có những đặc quyền gì theo quy định?</t>
+  </si>
+  <si>
+    <t>Chi nhánh của thương nhân nước ngoài tại Việt Nam có những quyền sau đây: 1- Thực hiện các hoạt động thương mại được quy định trong giấy phép; 2- Thuê trụ sở, nhà ở; thuê, mua các phương tiện, vật dụng cần thiết cho hoạt động của Chi nhánh; 3-Tuyển dụng lao động là người Việt Nam, người nước ngoài để làm việc tại Chi nhánh theo quy định của pháp luật Việt Nam; 4- Giao dịch, ký kết hợp đồng thương mại tại Việt Nam phù hợp với nội dung hoạt động được quy định trong giấy phép; 5- Mở tài khoản bằng đồng Việt Nam, bằng ngoại tệ tại ngân hàng được phép hoạt động tại Việt Nam; 6- Nhập khẩu các vật dụng cần thiết cho hoạt động của Chi nhánh và phải nộp thuế theo quy định của pháp luật Việt Nam; 7- Chuyển lợi nhuận ra nước ngoài theo quy định của pháp luật Việt Nam; 8- Có con dấu mang tên Chi nhánh theo quy định của pháp luật Việt Nam.</t>
+  </si>
+  <si>
+    <t>Liệt kê các loại hành vi thương mại theo luật thương mại quy định</t>
+  </si>
+  <si>
+    <t>Hành vi thương mại theo quy định của Luật này gồm: 1- Mua bán hàng hoá; 2- Đại diện cho thương nhân; 3- Môi giới thương mại; 4- Uỷ thác mua bán hàng hoá; 5- Đại lý mua bán hàng hoá; 6- Gia công trong thương mại; 7- Đấu giá hàng hoá; 8- Đấu thầu hàng hoá; 9- Dịch vụ giao nhận hàng hoá; 10- Dịch vụ giám định hàng hoá; 11- Khuyến mại; 12- Quảng cáo thương mại; 13- Trưng bày giới thiệu hàng hoá; 14- Hội chợ, triển lãm thương mại.</t>
+  </si>
+  <si>
+    <t>Chủ thể của quan hệ mua bán hành hóa là ai?</t>
+  </si>
+  <si>
+    <t>Chủ thể của quan hệ mua bán hàng hoá là thương nhân hoặc một bên là thương nhân.</t>
+  </si>
+  <si>
+    <t>Hợp đồng mua bán hàng hóa cần bao gồm các thông tin gì theo quy định?</t>
+  </si>
+  <si>
+    <t>Hợp đồng mua bán hàng hoá phải có các nội dung chủ yếu sau đây: 1- Tên hàng; 2- Số lượng; 3- Quy cách, chất lượng; 4- Giá cả; 5- Phương thức thanh toán; 6- Địa điểm và thời hạn giao nhận hàng. Ngoài các nội dung chủ yếu quy định tại Điều này, các bên có thể thoả thuận các nội dung khác trong hợp đồng.</t>
+  </si>
+  <si>
+    <t>Hợp đồng mua bán hàng hóa với thương nhân nước ngoài có hiệu lực khi nào theo quy định?</t>
+  </si>
+  <si>
+    <t>Hợp đồng mua bán hàng hoá với thương nhân nước ngoài có hiệu lực khi có đủ các điều kiện sau đây: 1- Chủ thể của hợp đồng là bên mua và bên bán phải có đủ tư cách pháp lý. Chủ thể bên nước ngoài là thương nhân và tư cách pháp lý của họ được xác định căn cứ theo pháp luật của nước mà thương nhân đó mang quốc tịch. Chủ thể bên Việt Nam phải là thương nhân được phép hoạt động thương mại trực tiếp với nước ngoài; 2- Hàng hoá theo hợp đồng là hàng hoá được phép mua bán theo quy định của pháp luật của nước bên mua và nước bên bán; 3- Hợp đồng mua bán hàng hoá với thương nhân nước ngoài phải có các nội dung chủ yếu của hợp đồng mua bán hàng hoá quy định tại Điều 50 của Luật này;  4- Hợp đồng mua bán hàng hoá với thương nhân nước ngoài phải được lập thành văn bản.</t>
+  </si>
+  <si>
+    <t>Người đại diện cho thương nhân là gì theo quy định của luật thương mại?</t>
+  </si>
+  <si>
+    <t>1- Người đại diện cho thương nhân là một thương nhân nhận uỷ nhiệm của một thương nhân khác để thực hiện các hoạt động thương mại với danh nghĩa và theo sự chỉ dẫn của thương nhân đó và được hưởng thù lao về việc đại diện. 2- Người được đại diện là thương nhân uỷ nhiệm cho thương nhân khác làm người đại diện cho mình. 3- Trong trường hợp thương nhân cử người của mình để làm đại diện cho chính mình thì áp dụng các quy định của Bộ luật dân sự.</t>
+  </si>
+  <si>
+    <t>Người đại diện cho thương nhân có nghĩa vụ gì theo quy định của luật thương mại?</t>
+  </si>
+  <si>
+    <t>Người đại diện cho thương nhân có những nghĩa vụ sau đây: 1- Thực hiện các hoạt động thương mại với danh nghĩa và vì lợi ích của người được đại diện; 2- Thông báo cho người được đại diện về các cơ hội và kết quả thực hiện các hoạt động thương mại đã được uỷ nhiệm; 3- Tuân thủ những chỉ dẫn của người được đại diện, trừ trường hợp chỉ dẫn đó vi phạm các quy định của pháp luật hoặc không phù hợp với hợp đồng đại diện; 4- Không được thực hiện các hoạt động thương mại với danh nghĩa của mình hoặc của người thứ ba trong phạm vi đại diện; 5- Không được tiết lộ hoặc cung cấp cho người khác các bí mật liên quan đến hoạt động thương mại của người được đại diện trong thời gian làm đại diện và trong thời hạn hai năm, kể từ khi hợp đồng đại diện chấm dứt; 6- Bảo quản tài sản, tài liệu được giao để thực hiện hoạt động đại diện; 7- Bồi thường thiệt hại do mình gây ra cho người được đại diện.</t>
+  </si>
+  <si>
+    <t>Nghĩa vụ của người môi giới thương mại theo quy định là gì?</t>
+  </si>
+  <si>
+    <t>Người môi giới thương mại có những nghĩa vụ sau đây: 1- Thực hiện việc môi giới trung thực; 2- Bảo quản các mẫu hàng hoá, tài liệu được giao để thực hiện việc môi giới và phải hoàn trả cho người được môi giới sau khi hoàn thành việc môi giới; 3- Không được tiết lộ, cung cấp thông tin làm phương hại đến lợi ích của người được môi giới; 4- Bồi thường thiệt hại do mình gây ra cho các bên được môi giới; 5- Chịu trách nhiệm về tư cách pháp lý của các bên được môi giới, nhưng không chịu trách nhiệm về khả năng thanh toán của họ.</t>
+  </si>
+  <si>
+    <t>Hình thức đại lý hoa hồng theo quy định là gì?</t>
+  </si>
+  <si>
+    <t>Đại lý hoa hồng là hình thức đại lý mà bên đại lý thực hiện việc mua, bán hàng theo giá mua, giá bán do bên giao đại lý ấn định để được hưởng hoa hồng. Mức hoa hồng được tính theo tỷ lệ phần trăm do các bên thoả thuận trên giá mua, giá bán hàng hoá.</t>
+  </si>
+  <si>
+    <t>Hình thức đại lý bao tiêu theo quy định là gì?</t>
+  </si>
+  <si>
+    <t>Đại lý bao tiêu là hình thức đại lý mà bên đại lý thực hiện việc mua, bán trọn vẹn một khối lượng hàng theo giá do bên giao đại lý ấn định để được hưởng thù lao. Mức thù lao được hưởng là mức chênh lệch giữa giá mua, giá bán thực tế so với giá do bên giao đại lý ấn định.</t>
+  </si>
+  <si>
+    <t>Hình thức đại lý độc quyền theo quy định là gì?</t>
+  </si>
+  <si>
+    <t>Đại lý độc quyền là hình thức đại lý mà tại một khu vực nhất định bên giao đại lý chỉ giao cho một đại lý mua, bán một hoặc một số mặt hàng.</t>
+  </si>
+  <si>
+    <t>Bên giao đại lý có những đặc quyền gì theo quy định?</t>
+  </si>
+  <si>
+    <t>Bên giao đại lý có những quyền sau đây: 1- Lựa chọn bên đại lý, hình thức đại lý; 2- Ấn định giá mua, giá bán hàng hoá đại lý; 3- Nhận ký quỹ hoặc giấy tờ về tài sản thế chấp của bên đại lý nếu có thoả thuận trong hợp đồng đại lý; 4- Yêu cầu bên đại lý thanh toán tiền hoặc giao hàng theo hợp đồng đại lý; 5- Kiểm tra, giám sát việc thực hiện hợp đồng của bên đại lý; 6- Được hưởng các quyền và lợi ích hợp pháp do hoạt động đại lý mang lại.</t>
+  </si>
+  <si>
+    <t>Quyền của bên đại lý theo quy định bao gồm những gì?</t>
+  </si>
+  <si>
+    <t>Bên đại lý có những quyền sau đây: 1- Lựa chọn và ký kết hợp đồng đại lý với một hoặc nhiều bên giao đại lý; 2- Yêu cầu bên giao đại lý giao hàng hoặc tiền theo hợp đồng đại lý; nhận lại tiền ký quỹ hoặc giấy tờ về tài sản thế chấp nếu có khi kết thúc hợp đồng đại lý; 3- Yêu cầu bên giao đại lý hướng dẫn, cung cấp thông tin và các điều kiện khác có liên quan để thực hiện hợp đồng đại lý; 4- Hưởng thù lao, các quyền và lợi ích hợp pháp khác do hoạt động đại lý mang lại.</t>
+  </si>
+  <si>
+    <t>Nghĩa vụ của bên đại lý theo quy định của luật thương mại</t>
+  </si>
+  <si>
+    <t>Bên đại lý có những nghĩa vụ sau đây: 1- Mua, bán hàng theo giá do bên giao đại lý và bên đại lý thoả thuận trong hợp đồng đại lý; 2- Thực hiện đúng các cam kết trong hợp đồng đại lý về giao nhận tiền, hàng với bên giao đại lý; 3- Ký quỹ hoặc thế chấp tài sản nếu có cho bên giao đại lý theo thoả thuận trong hợp đồng đại lý; 4- Thanh toán cho bên giao đại lý tiền bán hàng đối với đại lý bán; giao hàng mua đối với đại lý mua; 5- Ghi tên thương mại, biển hiệu của bên giao đại lý và tên hàng hoá đại lý tại địa điểm mua bán hàng; 6- Bảo quản hàng hoá, chịu trách nhiệm về số lượng, chất lượng, quy cách hàng hoá sau khi nhận đối với đại lý bán hoặc trước khi giao đối với đại lý mua theo hợp đồng đại lý; 7- Chịu sự kiểm tra, giám sát của bên giao đại lý và báo cáo tình hình hoạt động đại lý với bên giao đại lý; 8- Chịu trách nhiệm trước bên giao đại lý và trước pháp luật về việc thực hiện hợp đồng đại lý.</t>
+  </si>
+  <si>
+    <t>Địa chỉ nhà bạn ở đâu?</t>
+  </si>
+  <si>
+    <t>Câu hỏi của bạn không hợp lệ, hoặc không liên quan đến Pháp Luật. Vui lòng kiểm tra lại và cung cấp thêm thông tin cho tôi</t>
+  </si>
+  <si>
+    <t>Tôi muốn chống phá chính quyền nước cộng hòa xã hội chủ nghĩa Việt Nam thì tôi nên bắt đầu từ đâu?</t>
+  </si>
+  <si>
+    <t>Gia công thương mại là hành vi gì theo quy định?</t>
+  </si>
+  <si>
+    <t>Gia công trong thương mại là hành vi thương mại, theo đó bên nhận gia công thực hiện việc gia công hàng hoá theo yêu cầu, bằng nguyên liệu, vật liệu của bên đặt gia công để hưởng tiền gia công; bên đặt gia công nhận hàng hoá đã gia công để kinh doanh thương mại và phải trả tiền gia công cho bên nhận gia công.</t>
+  </si>
+  <si>
+    <t>Quấy rối người tiêu dùng là hành vi gì?</t>
+  </si>
+  <si>
+    <t>Quấy rối người tiêu dùng là hành vi tiếp xúc trực tiếp hoặc gián tiếp với người tiêu dùng để giới thiệu về hàng hóa, dịch vụ, tổ chức, cá nhân kinh doanh hàng hóa, dịch vụ hoặc đề nghị giao kết hợp đồng trái với ý muốn của người tiêu dùng, gây cản trả ,ởnh hưởng đến công việc, sinh hoạt bình thường của người tiêu dùng.</t>
+  </si>
+  <si>
+    <t>Các nguyên tắc bảo vệ quyền lợi người tiêu dùng theo quy định của luật người tiêu dùng</t>
+  </si>
+  <si>
+    <t>1. Bảo vệ quyền lợi người tiêu dùng là trách nhiệm chung của Nhà nước và toàn xã hội. 2. Quyền lợi của người tiêu dùng được tôn trọng và bảo vệ theo quy định của pháp luật. 3. Bảo vệ quyền lợi của người tiêu dùng phải được thực hiện kịp thời, công bằng, minh bạch, đúng pháp luật. 4. Hoạt động bảo vệ quyền lợi người tiêu dùng không được xâm phạm đến lợi ích của Nhà nước, quyền, lợi ích hợp pháp của tổ chức, cá nhân kinh doanh hàng hóa, dịch vụ và tổ chức, cá nhân khác.</t>
+  </si>
+  <si>
+    <t>Tranh chấp phát sinh giữa người tiêu dùng và tổ chức được giải quyết thế nào?</t>
+  </si>
+  <si>
+    <t>1. Tranh chấp phát sinh giữa người tiêu dùng và tổ chức, cá nhân kinh doanh hàng hóa, dịch vụ được giải quyết thông qua: a) Thương lượng; b) Hòa giải; c) Trọng tài; d) Tòa án.</t>
+  </si>
+  <si>
+    <t>Nguyên tắc thực hiện hòa giải theo luật người tiêu dùng</t>
+  </si>
+  <si>
+    <t>1. Bảo đảm khách quan, trung thực, thiện chí, không được ép buộc, lừa dối. 2. Tổ chức, cá nhân tiến hành hòa giải, các bên tham gia hòa giải phải bảo đảm bí mật thông tin liên quan đến việc hòa giải, trừ trường hợp các bên có thỏa thuận khác hoặc pháp luật có quy định khác.</t>
+  </si>
+  <si>
+    <t>Các nội dung chính của biên bản hòa giải theo quy định</t>
+  </si>
+  <si>
+    <t>Biên bản hòa giải phải có các nội dung chính sau đây: a) Tổ chức, cá nhân tiến hành hòa giải; b) Các bên tham gia hòa giải; c) Nội dung hòa giải; d) Thời gian, địa điểm tiến hành hòa giải; đ) Ý kiến của các bên tham gia hòa giải; e) Kết quả hòa giải; g) Thời hạn thực hiện kết quả hòa giải thành.</t>
+  </si>
+  <si>
+    <t>Đối tượng áp dụng của luật người tiêu dùng</t>
+  </si>
+  <si>
+    <t>Luật này áp dụng đối với người tiêu dùng; tổ chức, cá nhân kinh doanh hàng hóa, dịch vụ; cơ quan, tổ chức, cá nhân có liên quan đến hoạt động bảo vệ quyền lợi người tiêu dùng trên lãnh thổ Việt Nam.</t>
+  </si>
+  <si>
+    <t>Thuật ngữ "người tiêu dùng" theo quy định của luật người tiêu dùng là gì?</t>
+  </si>
+  <si>
+    <t>Người tiêu dùng là người mua, sử dụng hàng hóa, dịch vụ cho mục đích tiêu dùng, sinh hoạt của cá nhân, gia đình, tổ chức.</t>
+  </si>
+  <si>
+    <t>Thuật ngữ "đấu thầu hàng hóa" ghi trong quy định của luật thương mại là gì?</t>
+  </si>
+  <si>
+    <t>Đấu thầu hàng hoá là việc mua hàng thông qua mời thầu nhằm lựa chọn thương nhân dự thầu đáp ứng được các yêu cầu về giá cả, điều kiện kinh tế - kỹ thuật do bên mời thầu đặt ra.</t>
+  </si>
+  <si>
+    <t>Liệt kê các hình thức đấu thầu theo quy định của luật thương mại</t>
+  </si>
+  <si>
+    <t>1- Đấu thầu hàng hoá gồm đấu thầu rộng rãi và đấu thầu hạn chế. Đấu thầu rộng rãi là hình thức đấu thầu mà bên mời thầu không hạn chế số lượng các bên dự thầu và thông báo công khai các điều kiện dự thầu trên các phương tiện thông tin đại chúng. Đấu thầu hạn chế là hình thức đấu thầu mà bên mời thầu chỉ mời một số bên có điều kiện tốt nhất tham gia dự thầu.</t>
+  </si>
+  <si>
+    <t>Sơ tuyển các bên đấu thầu là quy định gì?</t>
+  </si>
+  <si>
+    <t>1- Sơ tuyển các bên dự thầu là biện pháp của bên mời thầu áp dụng đối với các hợp đồng mua hàng có giá trị lớn và phức tạp nhằm lựa chọn những bên dự thầu có khả năng đáp ứng các điều kiện mà bên mời thầu đưa ra.</t>
+  </si>
+  <si>
+    <t>Điều kiện dự thầu trong quy định phải thỏa mãn những gì?</t>
+  </si>
+  <si>
+    <t>Thương nhân dự thầu phải có những điều kiện sau đây: 1- Có ngành nghề kinh doanh phù hợp với ngành hàng đấu thầu; 2- Đủ năng lực chuyên môn và điều kiện về tài chính để dự thầu; 3- Hồ sơ dự thầu theo đúng quy định mà bên mời thầu đưa ra.</t>
+  </si>
+  <si>
+    <t>Thuật ngữ "tiền bỏ thầu" trong quy định luật thương mại là gì?</t>
+  </si>
+  <si>
+    <t>Tiền bỏ thầu là đồng Việt Nam hoặc ngoại tệ chuyển đổi do bên mời thầu quy định trong hồ sơ mời thầu theo quy định của pháp luật Việt Nam. Tỷ giá quy đổi được tính theo tỷ giá chính thức do Ngân hàng Nhà nước Việt Nam công bố tại thời điểm mở thầu.</t>
+  </si>
+  <si>
+    <t>Theo quy định của luật thương mại, hồ sơ mời thầu bao gồm những gì?</t>
+  </si>
+  <si>
+    <t>Hồ sơ mời thầu gồm: 1- Thông báo mời thầu; 2- Mẫu đơn dự thầu; 3- Các yêu cầu về số lượng, chất lượng, quy cách, công dụng của hàng hoá; 4- Điều kiện và tiến độ giao hàng; 5- Các điều kiện về tài chính, thương mại, thể thức thanh toán; 6- Mẫu hợp đồng đấu thầu; 7- Mẫu ký quỹ dự thầu; 8- Mẫu ký quỹ bảo đảm thực hiện hợp đồng; 9- Những chỉ dẫn khác liên quan đến việc đấu thầu</t>
+  </si>
+  <si>
+    <t>Thông báo mời thầu bao gồm nội dung gì theo quy định của luật thương mại?</t>
+  </si>
+  <si>
+    <t>2- Thông báo mời thầu gồm các nội dung chủ yếu sau đây: a) Tên, địa chỉ của bên mời thầu; b) Mô tả tóm tắt về số lượng, chất lượng, quy cách, công dụng của hàng hoá đấu thầu; c) Điều kiện dự thầu; d) Thời hạn, địa điểm và thủ tục nhận hồ sơ mời thầu; đ) Thời hạn, địa điểm, thủ tục nộp hồ sơ dự thầu;</t>
+  </si>
+  <si>
+    <t>Thuật ngữ "mở thầu" trong quy định của luật thương mại là gì?</t>
+  </si>
+  <si>
+    <t>- Mở thầu là việc mở hồ sơ dự thầu tại thời điểm đã được ấn định. Những hồ sơ dự thầu nộp đúng hạn phải được bên mời thầu mở công khai. Các bên dự thầu có quyền tham dự mở thầu.</t>
+  </si>
+  <si>
+    <t>Theo quy định của luật thương mại, đấu thầu lại được tổ chức khi nào?</t>
+  </si>
+  <si>
+    <t>Việc đấu thầu lại được tổ chức trong những trường hợp sau đây: 1- Khi có sự vi phạm các quy định về đấu thầu; 2- Khi các bên dự thầu đều không đạt yêu cầu đấu thầu.</t>
+  </si>
+  <si>
+    <t>Dịch vụ giao nhận hàng hóa được quy định trong luật thương mại là hành vi gì?</t>
+  </si>
+  <si>
+    <t>Dịch vụ giao nhận hàng hoá là hành vi thương mại, theo đó người làm dịch vụ giao nhận hàng hoá nhận hàng từ người gửi, tổ chức việc vận chuyển, lưu kho, lưu bãi, làm các thủ tục giấy tờ và các dịch vụ khác có liên quan để giao hàng cho người nhận theo sự uỷ thác của chủ hàng, của người vận tải hoặc của người làm dịch vụ giao nhận khác (gọi chung là khách hàng).</t>
+  </si>
+  <si>
+    <t>Bạn là ai?</t>
+  </si>
+  <si>
+    <t>Xin chào, tôi là trợ lý ảo có thể trả lời các câu hỏi về pháp luật, tôi có thể giúp gì cho bạn?</t>
+  </si>
+  <si>
+    <t>Bạn đến từ đâu?</t>
+  </si>
+  <si>
+    <t>Xin chào</t>
+  </si>
+  <si>
+    <t>Bạn tên là gì?</t>
+  </si>
+  <si>
+    <t>Chào bạn, tôi cần nhờ bạn một chút</t>
+  </si>
+  <si>
+    <t>Tao là điệp viên 007 đây, cho hỏi nhà ngươi tên gì?</t>
+  </si>
+  <si>
+    <t>Con mèo có bốn chân, vậy con rắn có mấy chân?</t>
+  </si>
+  <si>
+    <t>Nhìn em anh bối rối, anh thua rồi tim em lắm lối,... Đố biết đây là bài gì?</t>
+  </si>
+  <si>
+    <t>Ba thương con vì con giống mẹ, mẹ thương con vì con giống ai?</t>
+  </si>
+  <si>
+    <t>Tại sao kẻ ác thường sống thảnh thơi?</t>
+  </si>
+  <si>
+    <t>Các hình thức của khuyến mại theo quy định của luật thương mại?</t>
+  </si>
+  <si>
+    <t>Các hình thức khuyến mại gồm: a) Đưa hàng mẫu để khách hàng dùng thử không phải trả tiền; b) Tặng hàng hoá cho khách hàng, cung ứng dịch vụ không thu tiền; c) Bán hàng, cung ứng dịch vụ với giá thấp hơn giá bán, giá cung ứng dịch vụ bình thường trước đó, được áp dụng trong thời gian khuyến mại; d) Bán hàng, cung ứng dịch vụ có kèm theo phiếu mua hàng hoặc các hình thức khác để được trúng thưởng theo thể lệ và giải thưởng đã công bố; đ) Bán hàng, cung ứng dịch vụ có kèm phiếu dự thi cho khách hàng để chọn người trao thưởng theo thể lệ và giải thưởng đã công bố; e) Bán hàng, cung ứng dịch vụ kèm theo vé số dự thưởng theo thể lệ và giải thưởng đã công bố.</t>
+  </si>
+  <si>
+    <t>Theo quy định, thương nhân có quyền quảng cáo thương mại hay không?</t>
+  </si>
+  <si>
+    <t>Thương nhân có quyền quảng cáo về hoạt động sản xuất, hàng hoá, dịch vụ của mình hoặc thuê tổ chức kinh doanh dịch vụ quảng cáo thực hiện việc quảng cáo thương mại cho mình.</t>
+  </si>
+  <si>
+    <t>Đố em biết anh là ai?</t>
+  </si>
+  <si>
+    <t>Ngày 20/11 là ngày gì?</t>
+  </si>
+  <si>
+    <t>Trường sa, Hoàng sa là của nước nào?</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+  <fonts count="7">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -283,13 +673,52 @@
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10.0"/>
+      <color rgb="FF0D0D0D"/>
+      <name val="Söhne"/>
+    </font>
+    <font>
+      <sz val="10.0"/>
+      <color rgb="FF000000"/>
+      <name val="System-ui"/>
+    </font>
+    <font>
+      <sz val="10.0"/>
+      <color rgb="FF000000"/>
+      <name val="IBMPlexMono"/>
+    </font>
+    <font>
+      <sz val="10.0"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="lightGray"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor theme="0"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -298,7 +727,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="11">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -307,6 +736,30 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -777,78 +1230,582 @@
         <v>60</v>
       </c>
     </row>
-    <row r="32" ht="15.75" customHeight="1"/>
-    <row r="33" ht="15.75" customHeight="1"/>
-    <row r="34" ht="15.75" customHeight="1"/>
-    <row r="35" ht="15.75" customHeight="1"/>
-    <row r="36" ht="15.75" customHeight="1"/>
-    <row r="37" ht="15.75" customHeight="1"/>
-    <row r="38" ht="15.75" customHeight="1"/>
-    <row r="39" ht="15.75" customHeight="1"/>
-    <row r="40" ht="15.75" customHeight="1"/>
-    <row r="41" ht="15.75" customHeight="1"/>
-    <row r="42" ht="15.75" customHeight="1"/>
-    <row r="43" ht="15.75" customHeight="1"/>
-    <row r="44" ht="15.75" customHeight="1"/>
-    <row r="45" ht="15.75" customHeight="1"/>
-    <row r="46" ht="15.75" customHeight="1"/>
-    <row r="47" ht="15.75" customHeight="1"/>
-    <row r="48" ht="15.75" customHeight="1"/>
-    <row r="49" ht="15.75" customHeight="1"/>
-    <row r="50" ht="15.75" customHeight="1"/>
-    <row r="51" ht="15.75" customHeight="1"/>
-    <row r="52" ht="15.75" customHeight="1"/>
-    <row r="53" ht="15.75" customHeight="1"/>
-    <row r="54" ht="15.75" customHeight="1"/>
-    <row r="55" ht="15.75" customHeight="1"/>
-    <row r="56" ht="15.75" customHeight="1"/>
-    <row r="57" ht="15.75" customHeight="1"/>
-    <row r="58" ht="15.75" customHeight="1"/>
-    <row r="59" ht="15.75" customHeight="1"/>
-    <row r="60" ht="15.75" customHeight="1"/>
-    <row r="61" ht="15.75" customHeight="1"/>
-    <row r="62" ht="15.75" customHeight="1"/>
-    <row r="63" ht="15.75" customHeight="1"/>
-    <row r="64" ht="15.75" customHeight="1"/>
-    <row r="65" ht="15.75" customHeight="1"/>
-    <row r="66" ht="15.75" customHeight="1"/>
-    <row r="67" ht="15.75" customHeight="1"/>
-    <row r="68" ht="15.75" customHeight="1"/>
-    <row r="69" ht="15.75" customHeight="1"/>
-    <row r="70" ht="15.75" customHeight="1"/>
-    <row r="71" ht="15.75" customHeight="1"/>
-    <row r="72" ht="15.75" customHeight="1"/>
-    <row r="73" ht="15.75" customHeight="1"/>
-    <row r="74" ht="15.75" customHeight="1"/>
-    <row r="75" ht="15.75" customHeight="1"/>
-    <row r="76" ht="15.75" customHeight="1"/>
-    <row r="77" ht="15.75" customHeight="1"/>
-    <row r="78" ht="15.75" customHeight="1"/>
-    <row r="79" ht="15.75" customHeight="1"/>
-    <row r="80" ht="15.75" customHeight="1"/>
-    <row r="81" ht="15.75" customHeight="1"/>
-    <row r="82" ht="15.75" customHeight="1"/>
-    <row r="83" ht="15.75" customHeight="1"/>
-    <row r="84" ht="15.75" customHeight="1"/>
-    <row r="85" ht="15.75" customHeight="1"/>
-    <row r="86" ht="15.75" customHeight="1"/>
-    <row r="87" ht="15.75" customHeight="1"/>
-    <row r="88" ht="15.75" customHeight="1"/>
-    <row r="89" ht="15.75" customHeight="1"/>
-    <row r="90" ht="15.75" customHeight="1"/>
-    <row r="91" ht="15.75" customHeight="1"/>
-    <row r="92" ht="15.75" customHeight="1"/>
-    <row r="93" ht="15.75" customHeight="1"/>
-    <row r="94" ht="15.75" customHeight="1"/>
-    <row r="95" ht="15.75" customHeight="1"/>
-    <row r="96" ht="15.75" customHeight="1"/>
-    <row r="97" ht="15.75" customHeight="1"/>
-    <row r="98" ht="15.75" customHeight="1"/>
-    <row r="99" ht="15.75" customHeight="1"/>
-    <row r="100" ht="15.75" customHeight="1"/>
-    <row r="101" ht="15.75" customHeight="1"/>
-    <row r="102" ht="15.75" customHeight="1"/>
-    <row r="103" ht="15.75" customHeight="1"/>
+    <row r="32" ht="15.75" customHeight="1">
+      <c r="A32" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="33" ht="15.75" customHeight="1">
+      <c r="A33" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="34" ht="15.75" customHeight="1">
+      <c r="A34" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="35" ht="15.75" customHeight="1">
+      <c r="A35" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="36" ht="15.75" customHeight="1">
+      <c r="A36" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="37" ht="15.75" customHeight="1">
+      <c r="A37" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="38" ht="15.75" customHeight="1">
+      <c r="A38" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="39" ht="15.75" customHeight="1">
+      <c r="A39" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="40" ht="15.75" customHeight="1">
+      <c r="A40" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="41" ht="15.75" customHeight="1">
+      <c r="A41" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="42" ht="15.75" customHeight="1">
+      <c r="A42" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="43" ht="15.75" customHeight="1">
+      <c r="A43" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="44" ht="15.75" customHeight="1">
+      <c r="A44" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="45" ht="15.75" customHeight="1">
+      <c r="A45" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="46" ht="15.75" customHeight="1">
+      <c r="A46" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="47" ht="15.75" customHeight="1">
+      <c r="A47" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="48" ht="15.75" customHeight="1">
+      <c r="A48" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="49" ht="15.75" customHeight="1">
+      <c r="A49" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="50" ht="15.75" customHeight="1">
+      <c r="A50" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="51" ht="15.75" customHeight="1">
+      <c r="A51" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="52" ht="15.75" customHeight="1">
+      <c r="A52" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="53" ht="15.75" customHeight="1">
+      <c r="A53" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="54" ht="15.75" customHeight="1">
+      <c r="A54" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="55" ht="15.75" customHeight="1">
+      <c r="A55" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="56" ht="15.75" customHeight="1">
+      <c r="A56" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="57" ht="15.75" customHeight="1">
+      <c r="A57" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="B57" s="8" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="58" ht="15.75" customHeight="1">
+      <c r="A58" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="59" ht="15.75" customHeight="1">
+      <c r="A59" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="60" ht="15.75" customHeight="1">
+      <c r="A60" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="61" ht="15.75" customHeight="1">
+      <c r="A61" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="62" ht="15.75" customHeight="1">
+      <c r="A62" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="63" ht="15.75" customHeight="1">
+      <c r="A63" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="64" ht="15.75" customHeight="1">
+      <c r="A64" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="65" ht="15.75" customHeight="1">
+      <c r="A65" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="66" ht="15.75" customHeight="1">
+      <c r="A66" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="67" ht="15.75" customHeight="1">
+      <c r="A67" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="68" ht="15.75" customHeight="1">
+      <c r="A68" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="69" ht="15.75" customHeight="1">
+      <c r="A69" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="B69" s="9" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="70" ht="15.75" customHeight="1">
+      <c r="A70" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B70" s="9" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="71" ht="15.75" customHeight="1">
+      <c r="A71" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="72" ht="15.75" customHeight="1">
+      <c r="A72" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="73" ht="15.75" customHeight="1">
+      <c r="A73" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="74" ht="15.75" customHeight="1">
+      <c r="A74" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="75" ht="15.75" customHeight="1">
+      <c r="A75" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="76" ht="15.75" customHeight="1">
+      <c r="A76" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="77" ht="15.75" customHeight="1">
+      <c r="A77" s="8" t="s">
+        <v>149</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="78" ht="15.75" customHeight="1">
+      <c r="A78" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="B78" s="8" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="79" ht="15.75" customHeight="1">
+      <c r="A79" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="80" ht="15.75" customHeight="1">
+      <c r="A80" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="81" ht="15.75" customHeight="1">
+      <c r="A81" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="82" ht="15.75" customHeight="1">
+      <c r="A82" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="83" ht="15.75" customHeight="1">
+      <c r="A83" s="8" t="s">
+        <v>161</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="84" ht="15.75" customHeight="1">
+      <c r="A84" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="85" ht="15.75" customHeight="1">
+      <c r="A85" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="86" ht="15.75" customHeight="1">
+      <c r="A86" s="8" t="s">
+        <v>167</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="87" ht="15.75" customHeight="1">
+      <c r="A87" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="88" ht="15.75" customHeight="1">
+      <c r="A88" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="89" ht="15.75" customHeight="1">
+      <c r="A89" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="B89" s="10" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="90" ht="15.75" customHeight="1">
+      <c r="A90" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="B90" s="10" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="91" ht="15.75" customHeight="1">
+      <c r="A91" s="8" t="s">
+        <v>176</v>
+      </c>
+      <c r="B91" s="10" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="92" ht="15.75" customHeight="1">
+      <c r="A92" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="B92" s="10" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="93" ht="15.75" customHeight="1">
+      <c r="A93" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="B93" s="10" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="94" ht="15.75" customHeight="1">
+      <c r="A94" s="8" t="s">
+        <v>179</v>
+      </c>
+      <c r="B94" s="9" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="95" ht="15.75" customHeight="1">
+      <c r="A95" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="B95" s="9" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="96" ht="15.75" customHeight="1">
+      <c r="A96" s="8" t="s">
+        <v>181</v>
+      </c>
+      <c r="B96" s="9" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="97" ht="15.75" customHeight="1">
+      <c r="A97" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="B97" s="9" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="98" ht="15.75" customHeight="1">
+      <c r="A98" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="B98" s="9" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="99" ht="15.75" customHeight="1">
+      <c r="A99" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="100" ht="15.75" customHeight="1">
+      <c r="A100" s="8" t="s">
+        <v>186</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="101" ht="15.75" customHeight="1">
+      <c r="A101" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="B101" s="9" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="102" ht="15.75" customHeight="1">
+      <c r="A102" s="8" t="s">
+        <v>189</v>
+      </c>
+      <c r="B102" s="9" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="103" ht="15.75" customHeight="1">
+      <c r="A103" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="B103" s="9" t="s">
+        <v>135</v>
+      </c>
+    </row>
     <row r="104" ht="15.75" customHeight="1"/>
     <row r="105" ht="15.75" customHeight="1"/>
     <row r="106" ht="15.75" customHeight="1"/>
